--- a/src/main/java/com/qa/testdata/OrangeHRMNewEmployeeData.xlsx
+++ b/src/main/java/com/qa/testdata/OrangeHRMNewEmployeeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69c2e764c91322d6/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14A65730-733E-4972-85DE-E0C6EA4919DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{14A65730-733E-4972-85DE-E0C6EA4919DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C563B908-75A7-4D3D-8163-DCFDD0533D06}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E364C206-927E-4B4D-92B3-B63DF51F56C5}"/>
   </bookViews>
@@ -440,13 +440,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
